--- a/data/bridge.xlsx
+++ b/data/bridge.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>d9807c6e-c5e4-4246-b10d-c9f1ba8e98a5</t>
+          <t>a743b9be-b83d-4b14-b24c-3386eeee3840</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5a27f748-92b5-47fd-9a76-eb40fab3314d</t>
+          <t>d7791cb6-4535-4112-aaf8-5cc83fe80952</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>80a022d4-1d82-4e6c-baec-8c2dbc200e1a</t>
+          <t>50bf79e0-2ea6-4934-ac41-fbf059a95160</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>db8bbb46-450b-4481-9d11-1c5205aaccc5</t>
+          <t>62b94a91-1a30-4eb4-a9f4-b493781accea</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>e8cfdd7e-c73e-47a4-9ba4-bad0d890c9a6</t>
+          <t>26793bec-c8f4-49f3-8ed0-acffd9de5b08</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>f32e54c5-6b4c-420c-9d78-5b4e6a3471e3</t>
+          <t>e8630a30-f993-42d7-844d-a19ffcb73834</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3463a6d2-f4c2-412a-b657-2b71e8e175d7</t>
+          <t>dcaaed3e-86f8-4955-a032-05431193fac1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>888d36cb-928e-4680-8e16-44d314653d17</t>
+          <t>3f82a404-9739-4640-8f97-de67eaa62e84</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>a9a781ed-84f5-41a8-9bb6-22510166e1c7</t>
+          <t>d87a4098-63db-4d72-802a-83e86915d74e</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -925,7 +925,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3e6cfdf0-9ecc-48a9-9679-7644384daee3</t>
+          <t>4387ea48-d89d-449c-85e4-c1f192f300c6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -956,7 +956,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ea179f64-026b-42cb-93b2-418388af35cb</t>
+          <t>7e53481d-0b7f-4cab-aff0-fa4e0302f8d4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -987,7 +987,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7cc78a7c-6718-4f20-b337-602025cb2d22</t>
+          <t>8b8e6797-2d75-42cc-9ac8-33b10c816cb4</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">

--- a/data/bridge.xlsx
+++ b/data/bridge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>location</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,12 +523,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>a743b9be-b83d-4b14-b24c-3386eeee3840</t>
+          <t>8c3be8f5-6ae1-4d29-8e6d-c8ce7a56692b</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>[59.877646, 30.453283]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Володарского моста</t>
         </is>
       </c>
     </row>
@@ -565,12 +575,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>d7791cb6-4535-4112-aaf8-5cc83fe80952</t>
+          <t>ab7febdd-0b04-4f48-84e0-b0a571d9ace0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>[59.925655, 30.395755]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>моста Александра Невского</t>
         </is>
       </c>
     </row>
@@ -612,12 +627,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>50bf79e0-2ea6-4934-ac41-fbf059a95160</t>
+          <t>d86234aa-4a90-437e-8ac1-8fd849bb1548</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>[59.94262, 30.401585]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Большеохтинского моста</t>
         </is>
       </c>
     </row>
@@ -659,12 +679,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>62b94a91-1a30-4eb4-a9f4-b493781accea</t>
+          <t>e266c40d-4115-455d-a19c-4171f0a5b4a1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>[59.951776, 30.349582]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Литейного моста</t>
         </is>
       </c>
     </row>
@@ -706,12 +731,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>26793bec-c8f4-49f3-8ed0-acffd9de5b08</t>
+          <t>21f72354-ac2f-4010-ba7e-f43c348fabd9</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>[59.948767, 30.327582]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Троицкого моста</t>
         </is>
       </c>
     </row>
@@ -753,12 +783,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>e8630a30-f993-42d7-844d-a19ffcb73834</t>
+          <t>349dc013-8533-4c4c-bb8c-556e2bf09605</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>[59.941213, 30.30817]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Дворцового моста</t>
         </is>
       </c>
     </row>
@@ -800,12 +835,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>dcaaed3e-86f8-4955-a032-05431193fac1</t>
+          <t>068efe14-84f3-443e-9454-0a75ac03f3be</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>[59.934691, 30.289538]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Благовещенского моста</t>
         </is>
       </c>
     </row>
@@ -847,12 +887,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3f82a404-9739-4640-8f97-de67eaa62e84</t>
+          <t>30113a9c-7469-4d19-bc95-d01be6bbba03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>[59.94627, 30.303489]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Биржевого моста</t>
         </is>
       </c>
     </row>
@@ -894,12 +939,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>d87a4098-63db-4d72-802a-83e86915d74e</t>
+          <t>8b66fda0-125b-4dcb-86d9-4f66c831d92f</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>[59.949038, 30.285449]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Тучкова моста</t>
         </is>
       </c>
     </row>
@@ -925,12 +975,17 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4387ea48-d89d-449c-85e4-c1f192f300c6</t>
+          <t>99bdbbca-ceaf-4044-b832-d9221137cc59</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>[59.957958, 30.337383]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Сампсониевского моста</t>
         </is>
       </c>
     </row>
@@ -956,12 +1011,17 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7e53481d-0b7f-4cab-aff0-fa4e0302f8d4</t>
+          <t>9fc41f50-59e1-4c7e-9d2a-be28118b199b</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>[59.967917, 30.334661]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Гренадерского моста</t>
         </is>
       </c>
     </row>
@@ -987,12 +1047,17 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8b8e6797-2d75-42cc-9ac8-33b10c816cb4</t>
+          <t>632d74f3-fd4d-4a6f-9f0c-e29afe8344d6</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>[59.967917, 30.334661]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Гренадерского моста</t>
         </is>
       </c>
     </row>

--- a/data/bridge.xlsx
+++ b/data/bridge.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8c3be8f5-6ae1-4d29-8e6d-c8ce7a56692b</t>
+          <t>a23fcb55-8b38-4b6b-bdfd-d9165dc29302</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ab7febdd-0b04-4f48-84e0-b0a571d9ace0</t>
+          <t>66ea5ce7-ee9e-40eb-abcb-40b0d582516d</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>d86234aa-4a90-437e-8ac1-8fd849bb1548</t>
+          <t>1d7ab8e7-828a-4b4d-8e3b-d991d7fa5ae8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>e266c40d-4115-455d-a19c-4171f0a5b4a1</t>
+          <t>e0dc9791-ad1f-47c7-aab9-3bb9c617e888</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21f72354-ac2f-4010-ba7e-f43c348fabd9</t>
+          <t>6fc34bf9-15c3-4f1f-9642-6c593cf5ee13</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>349dc013-8533-4c4c-bb8c-556e2bf09605</t>
+          <t>83d8879b-2360-4828-afc8-03ca3bdc37cc</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>068efe14-84f3-443e-9454-0a75ac03f3be</t>
+          <t>b223f1b2-bbeb-407c-b2eb-be555e134526</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>30113a9c-7469-4d19-bc95-d01be6bbba03</t>
+          <t>eb6e5b4b-f738-4ea9-9e6f-af310a52e437</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8b66fda0-125b-4dcb-86d9-4f66c831d92f</t>
+          <t>3e792c8c-66ee-4679-a231-d5b0b1467c60</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -975,7 +975,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>99bdbbca-ceaf-4044-b832-d9221137cc59</t>
+          <t>8a98a6da-33c1-4747-9ff3-5c7f44ea36fa</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1011,7 +1011,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9fc41f50-59e1-4c7e-9d2a-be28118b199b</t>
+          <t>3ad2cf0e-667a-49d6-8c15-6dd5ca1fb7cb</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1028,12 +1028,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Гренадерский</t>
+          <t>Кантемировский</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/bridges/grenaderskij</t>
+          <t>/bridges/kantemirovskij</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1047,17 +1047,17 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>632d74f3-fd4d-4a6f-9f0c-e29afe8344d6</t>
+          <t>25f6e44e-49f9-481a-96ab-8a2932b016e2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[59.967917, 30.334661]</t>
+          <t>[59.978489, 30.321815]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Гренадерского моста</t>
+          <t>Кантемировского моста</t>
         </is>
       </c>
     </row>
